--- a/data/financial_statements/socf/USB.xlsx
+++ b/data/financial_statements/socf/USB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -101,9 +221,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -156,12 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -458,328 +572,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-4900000000</v>
+      </c>
+      <c r="C2">
         <v>1812000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1531000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1557000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1673000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2028000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1982000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2280000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1519000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1580000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>689000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1171000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1486000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1908000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1821000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1699000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1856000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1815000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1750000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1675000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1682000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1563000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1500000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1473000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1478000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1502000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1522000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1386000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1476000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1489000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1483000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1431000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1488000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1471000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1495000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1397000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1456000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1468000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1484000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1428000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>128000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>125000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>132000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>125000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>126000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>124000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>122000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>134000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>133000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>131000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>129000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>130000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>127000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>125000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>120000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>121000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>118000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>115000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>113000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>118000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>117000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>116000000</v>
-      </c>
-      <c r="X3">
-        <v>117000000</v>
       </c>
       <c r="Y3">
         <v>117000000</v>
@@ -791,1726 +908,1726 @@
         <v>117000000</v>
       </c>
       <c r="AB3">
+        <v>117000000</v>
+      </c>
+      <c r="AC3">
         <v>119000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>123000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>118000000</v>
-      </c>
-      <c r="AE3">
-        <v>120000000</v>
       </c>
       <c r="AF3">
         <v>120000000</v>
       </c>
       <c r="AG3">
+        <v>120000000</v>
+      </c>
+      <c r="AH3">
         <v>128000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>127000000</v>
-      </c>
-      <c r="AI3">
-        <v>123000000</v>
       </c>
       <c r="AJ3">
         <v>123000000</v>
       </c>
       <c r="AK3">
+        <v>123000000</v>
+      </c>
+      <c r="AL3">
         <v>131000000</v>
-      </c>
-      <c r="AL3">
-        <v>129000000</v>
       </c>
       <c r="AM3">
         <v>129000000</v>
       </c>
       <c r="AN3">
+        <v>129000000</v>
+      </c>
+      <c r="AO3">
         <v>131000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>256000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>286000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>70000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-114000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-268000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-296000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-893000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>371000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>588000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1630000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>873000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>277000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>225000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>256000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>277000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>167000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>237000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>202000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>263000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>220000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>255000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>214000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>199000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>188000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>216000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>63000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>240000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>221000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>100000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>207000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>201000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>76000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>231000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>45000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>282000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>283000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>350000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>215000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>418000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-951000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-678000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4109000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-758000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-683000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2738000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-744000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-1574000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>153000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-3600000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>847000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-1867000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-251000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-1173000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-729000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1123000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-106000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-46000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>151000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>90000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-196000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-997000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2050000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>479000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-1396000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-420000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-879000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1100000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>902000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-714000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-382000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-918000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-1037000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-1176000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1434000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>369000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>954000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2509000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>107000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>2260000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>985000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2609000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-223000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1444000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1035000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>172000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1519000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>830000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>297000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-666000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-88000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1037000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-420000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-71000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-617000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1161000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1234000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-768000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-2279000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>123000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>756000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-649000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-164000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>115000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>141000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>395000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-389000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>245000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>550000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>381000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>92000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-210000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>625000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-464000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>550000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-760000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>511000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-416000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>3505000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2249000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8477000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>703000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2647000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5583000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>937000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1069000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3284000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-853000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2354000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-62000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3046000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>609000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1296000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2650000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3225000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3255000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1434000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-169000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1862000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1589000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3190000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2098000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>554000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1423000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1261000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2531000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2854000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1646000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1751000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>866000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>582000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1112000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2772000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2789000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2141000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4848000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1668000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>-167000000</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>-255000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>3691000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-58000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>3405000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2057000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>130000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-26066000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9846000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-2932000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-22596000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-2945000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-6214000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-4039000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1416000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1366000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-4990000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-725000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-5139000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-455000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>962000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-929000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-200000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-978000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-670000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-384000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-1054000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-834000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-1632000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-1176000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-978000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-1037000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-1586000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-1258000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-1203000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-3545000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-6565000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-4726000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-5347000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-3878000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-1489000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-409000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-907000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-10966000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-14209000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-7494000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-15652000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-259000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-2958000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3130000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>9355000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2359000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8303000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-23675000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-1555000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-4509000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-4603000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-1405000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-4302000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-3013000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-1322000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>282000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-1828000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-1836000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-4709000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-667000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-1883000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-3515000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-4029000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-3911000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-7002000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-3401000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-4365000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-1298000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-2895000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-2040000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-4832000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-3298000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-4425000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-3831000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-5410000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-617000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-7561000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-12152000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-7364000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-41718000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9587000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-5890000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-19466000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6410000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-3855000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4264000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-22259000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-189000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-9499000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-5328000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-6544000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-4757000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-2051000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-2251000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>82000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-2806000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-2506000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-5093000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-1721000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-2717000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-5147000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-5205000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-4889000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-8039000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-4987000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-5623000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-2501000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-6440000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-8860000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-5867000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-8645000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-8361000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-5320000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-5819000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-1524000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>3284000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-62000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10281000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-7706000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2059000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>300000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-3429000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-3126000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-6979000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-15563000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>13736000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>8181000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-320000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-97000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>600000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-9335000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9491000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4457000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2025000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-1453000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-1914000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>4063000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>909000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-6337000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-1678000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-3279000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-1400000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>585000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-2627000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-1330000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1112000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1332000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>6091000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>134000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6994000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2820000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-990000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-1925000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>559000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>-39000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-13000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-872000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-629000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-8000000</v>
-      </c>
-      <c r="J13">
-        <v>1000000</v>
       </c>
       <c r="K13">
         <v>1000000</v>
       </c>
       <c r="L13">
+        <v>1000000</v>
+      </c>
+      <c r="M13">
         <v>-1651000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-2256000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-764000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-784000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-633000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-805000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-710000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-673000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-548000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-660000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-657000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-673000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-482000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-458000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-589000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-619000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-535000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-376000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-618000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-589000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-312000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-420000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-602000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-528000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-197000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-310000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-498000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-529000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-421000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>-663000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1491000000</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>-750000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>230000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>486000000</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>565000000</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>-1085000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>993000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>745000000</v>
       </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>-13000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-746000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-770000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-757000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-770000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-684000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-720000000</v>
-      </c>
-      <c r="H15">
-        <v>-713000000</v>
       </c>
       <c r="I15">
         <v>-713000000</v>
       </c>
       <c r="J15">
+        <v>-713000000</v>
+      </c>
+      <c r="K15">
         <v>-707000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-714000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-718000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-742000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-661000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-673000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-669000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-679000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-557000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-567000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-563000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-573000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-536000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-545000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-558000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-540000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-519000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-505000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-513000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-508000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-513000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-498000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-500000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-503000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-504000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-480000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-482000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-483000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-484000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-432000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-431000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>4046000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5556000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5463000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>13014000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5720000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3421000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3991000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>16553000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-89000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>18452000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>32938000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2201000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>6538000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>5090000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2612000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>14297000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-8902000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-4446000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-2689000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>4626000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-4673000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10389000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2283000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-5000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>17005000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>11242000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>5910000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>5759000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-1584000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>10247000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3868000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>9636000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-3160000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>10857000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-1511000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>407000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>10148000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3556000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-1171000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>6584000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4724000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>14285000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>6016000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7097000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1379000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-550000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13192000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-7774000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2176000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>44305000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>7384000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>4793000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3536000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1910000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3478000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-113000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-1229000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-1775000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1940000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-7780000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>12149000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3145000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-7340000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>14219000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>6839000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3462000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>6205000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-5342000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>7830000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>4168000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>10045000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1825000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>9983000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>4804000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>2434000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>8176000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>657000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-1464000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2528000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-5179000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>15398000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-34999000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19331000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1072000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-19079000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18533000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8345000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5587000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>24400000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7133000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-1660000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-1183000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-3338000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1371000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1061000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-225000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-259000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-1035000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-8424000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>8645000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>4614000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-7959000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>9626000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>3057000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-166000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>697000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-7475000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>3853000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>3418000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>4471000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-6453000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>5228000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-1069000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-3138000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>4997000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-314000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-1320000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>28905000000</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -2518,11 +2635,11 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>62580000000</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -2530,11 +2647,11 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>22405000000</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -2542,11 +2659,11 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>21453000000</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
       <c r="R19">
         <v>0</v>
       </c>
@@ -2554,11 +2671,11 @@
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>19505000000</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
@@ -2566,11 +2683,11 @@
         <v>0</v>
       </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>15705000000</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
         <v>0</v>
       </c>
@@ -2578,11 +2695,11 @@
         <v>0</v>
       </c>
       <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
         <v>11147000000</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
       <c r="AD19">
         <v>0</v>
       </c>
@@ -2590,11 +2707,11 @@
         <v>0</v>
       </c>
       <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>10654000000</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
       <c r="AH19">
         <v>0</v>
       </c>
@@ -2602,11 +2719,11 @@
         <v>0</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
         <v>8477000000</v>
       </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
       <c r="AL19">
         <v>0</v>
       </c>
@@ -2614,158 +2731,161 @@
         <v>0</v>
       </c>
       <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>8252000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>2528000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-5179000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>44303000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-34999000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>19331000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1072000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>43501000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18533000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-8345000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5587000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>46805000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7133000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-1660000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-1183000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>18115000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1371000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1061000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-225000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>19246000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-1035000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-8424000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>8645000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>20319000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-7959000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>9626000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3057000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>10981000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>697000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-7475000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3853000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>14072000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>4471000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-6453000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>5228000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>7408000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-3138000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>4997000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-314000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>6932000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>2060000000</v>
+      </c>
+      <c r="C21">
         <v>-687000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-686000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-687000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-685000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-626000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-631000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-637000000</v>
-      </c>
-      <c r="I21">
-        <v>-635000000</v>
       </c>
       <c r="J21">
         <v>-635000000</v>
@@ -2774,822 +2894,828 @@
         <v>-635000000</v>
       </c>
       <c r="L21">
+        <v>-635000000</v>
+      </c>
+      <c r="M21">
         <v>-647000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-663000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-589000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-594000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-597000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-603000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-493000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-497000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-499000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-502000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-472000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-476000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-478000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-479000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-440000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-444000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-447000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-448000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-452000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-438000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-439000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-441000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-444000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-420000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-421000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-422000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-424000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-363000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-367000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1694</v>
+      </c>
+      <c r="C22">
         <v>0.2611</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.223</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1225</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2331</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.1378</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0613</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.07240000000000001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.0279</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2245</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1944</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.6088</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1895</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2983</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2856</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.287</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2663</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2418</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2193</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.17</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1408</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1564</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1012</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1791</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1993</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1952</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.3292</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.3389</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2781</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.3059</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.211</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2704</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2666</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.3269</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.169</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.21</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1558</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1065</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1958</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2899</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-951000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-678000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>4109000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-758000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-683000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2738000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-744000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-1574000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>153000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-3600000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>847000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-1867000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-251000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-1173000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-729000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1123000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-106000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-46000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>151000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>90000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-196000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-997000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2050000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>479000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-1396000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-420000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-879000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1100000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>902000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-714000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-382000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-918000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-1037000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-1176000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1434000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>369000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>954000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2509000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>107000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>3405000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2057000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>130000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-26066000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>9846000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-2932000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-22596000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-2945000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6214000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-4039000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1416000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1366000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-4990000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-725000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-5139000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-455000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>962000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-929000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-200000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-978000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-670000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-384000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-1054000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-834000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-1632000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-1176000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-978000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-1037000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-1586000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-1258000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-1203000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-3545000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-6565000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-4726000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-5347000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-3878000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-1489000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-409000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-907000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>-59000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-84000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-70000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-85000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-58000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-89000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-76000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-78000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-72000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-79000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-71000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-79000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-72000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-79000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-72000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-76000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-64000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-70000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-64000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-71000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-64000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-69000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-80000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-61000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-79000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-61000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-66000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-60000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-61000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-60000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-61000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-62000000</v>
-      </c>
-      <c r="AH25">
-        <v>-60000000</v>
       </c>
       <c r="AI25">
         <v>-60000000</v>
       </c>
       <c r="AJ25">
-        <v>-61000000</v>
+        <v>-60000000</v>
       </c>
       <c r="AK25">
         <v>-61000000</v>
       </c>
       <c r="AL25">
+        <v>-61000000</v>
+      </c>
+      <c r="AM25">
         <v>-60000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-69000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-64000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>-702000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1478000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-1622000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-399000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>478000000</v>
-      </c>
-      <c r="J26">
-        <v>1000000</v>
       </c>
       <c r="K26">
         <v>1000000</v>
       </c>
       <c r="L26">
+        <v>1000000</v>
+      </c>
+      <c r="M26">
         <v>-1651000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-2256000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-764000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-784000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-633000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-805000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-145000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-673000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-548000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-660000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-657000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-1758000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>511000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-458000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-589000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-619000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-535000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>369000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-618000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-589000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-312000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-420000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-602000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-528000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-197000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-310000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-498000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-542000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-421000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>-702000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1478000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-1622000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-399000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>478000000</v>
-      </c>
-      <c r="J27">
-        <v>1000000</v>
       </c>
       <c r="K27">
         <v>1000000</v>
       </c>
       <c r="L27">
+        <v>1000000</v>
+      </c>
+      <c r="M27">
         <v>-1651000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-2256000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-764000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-784000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-633000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-805000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-145000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-673000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-548000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-660000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-657000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-1758000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>511000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-458000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-589000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-619000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-535000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>369000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-618000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-589000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-312000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-420000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-602000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-528000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-197000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-310000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-498000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-542000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-421000000</v>
       </c>
     </row>
